--- a/Income/NUE_inc.xlsx
+++ b/Income/NUE_inc.xlsx
@@ -3505,16 +3505,16 @@
         <v>0.1198</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.1058</v>
+        <v>0.1024</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.1049</v>
+        <v>0.1016</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.1121</v>
+        <v>0.109</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.1197</v>
+        <v>0.1167</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.1397</v>
